--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value188.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value188.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.219004463751761</v>
+        <v>6.691262245178223</v>
       </c>
       <c r="B1">
-        <v>1.855386699272768</v>
+        <v>5.284496307373047</v>
       </c>
       <c r="C1">
-        <v>3.100250346947166</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.172452738544618</v>
+        <v>4.97516918182373</v>
       </c>
       <c r="E1">
-        <v>0.5169357325748527</v>
+        <v>2.409585952758789</v>
       </c>
     </row>
   </sheetData>
